--- a/output/bi.custom.json/game.xlsx
+++ b/output/bi.custom.json/game.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H823"/>
+  <dimension ref="A1:H1039"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31721,6 +31721,8214 @@
         </is>
       </c>
     </row>
+    <row customHeight="1" ht="15" r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B824" t="n">
+        <v>1733108410177</v>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D824" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E824" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F824" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G824" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H824" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B825" t="n">
+        <v>1733108470386</v>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D825" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F825" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G825" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H825" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B826" t="n">
+        <v>1733108530578</v>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D826" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F826" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G826" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H826" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B827" t="n">
+        <v>1733108590816</v>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D827" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F827" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G827" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H827" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B828" t="n">
+        <v>1733108651067</v>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D828" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F828" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G828" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H828" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B829" t="n">
+        <v>1733108711285</v>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D829" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E829" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F829" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G829" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H829" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B830" t="n">
+        <v>1733108771510</v>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D830" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F830" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G830" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H830" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B831" t="n">
+        <v>1733108831748</v>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D831" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F831" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G831" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H831" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B832" t="n">
+        <v>1733108891927</v>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D832" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F832" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G832" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H832" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B833" t="n">
+        <v>1733108952094</v>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D833" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F833" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G833" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H833" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B834" t="n">
+        <v>1733109012333</v>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D834" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F834" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G834" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H834" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B835" t="n">
+        <v>1733109072574</v>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D835" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F835" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G835" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H835" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B836" t="n">
+        <v>1733109132783</v>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D836" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F836" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G836" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H836" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B837" t="n">
+        <v>1733109192973</v>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D837" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F837" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G837" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H837" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B838" t="n">
+        <v>1733109253164</v>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D838" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F838" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G838" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H838" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B839" t="n">
+        <v>1733109313437</v>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D839" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F839" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G839" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H839" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B840" t="n">
+        <v>1733109373634</v>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D840" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F840" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G840" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H840" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B841" t="n">
+        <v>1733109433798</v>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D841" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F841" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G841" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H841" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B842" t="n">
+        <v>1733109494038</v>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D842" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E842" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F842" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G842" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B843" t="n">
+        <v>1733109554300</v>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D843" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E843" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F843" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G843" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H843" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B844" t="n">
+        <v>1733109614521</v>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D844" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E844" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F844" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G844" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H844" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B845" t="n">
+        <v>1733109674786</v>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D845" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E845" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F845" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G845" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H845" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B846" t="n">
+        <v>1733109734974</v>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D846" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E846" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F846" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G846" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H846" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B847" t="n">
+        <v>1733109795200</v>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D847" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E847" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F847" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G847" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H847" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B848" t="n">
+        <v>1733109855412</v>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D848" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E848" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F848" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G848" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H848" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B849" t="n">
+        <v>1733109915587</v>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D849" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E849" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F849" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G849" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H849" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B850" t="n">
+        <v>1733109975820</v>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D850" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E850" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F850" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G850" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H850" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B851" t="n">
+        <v>1733110035997</v>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D851" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E851" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F851" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G851" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H851" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B852" t="n">
+        <v>1733110096230</v>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D852" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E852" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F852" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G852" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H852" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B853" t="n">
+        <v>1733110156441</v>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D853" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E853" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F853" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G853" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H853" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B854" t="n">
+        <v>1733110216664</v>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D854" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E854" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F854" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G854" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H854" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B855" t="n">
+        <v>1733110276853</v>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D855" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E855" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F855" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G855" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H855" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B856" t="n">
+        <v>1733110337059</v>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D856" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F856" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G856" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H856" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B857" t="n">
+        <v>1733110397309</v>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D857" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F857" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G857" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H857" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B858" t="n">
+        <v>1733110457463</v>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D858" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E858" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F858" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G858" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H858" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B859" t="n">
+        <v>1733110517631</v>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D859" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F859" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G859" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H859" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B860" t="n">
+        <v>1733110577858</v>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D860" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E860" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F860" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G860" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H860" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B861" t="n">
+        <v>1733110638075</v>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D861" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E861" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F861" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G861" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H861" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B862" t="n">
+        <v>1733110698326</v>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D862" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E862" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F862" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G862" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H862" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B863" t="n">
+        <v>1733110758567</v>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D863" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E863" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F863" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G863" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H863" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B864" t="n">
+        <v>1733110818785</v>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D864" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F864" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G864" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H864" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B865" t="n">
+        <v>1733110878964</v>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D865" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E865" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F865" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G865" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H865" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B866" t="n">
+        <v>1733110939192</v>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D866" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E866" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F866" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G866" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H866" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B867" t="n">
+        <v>1733110999404</v>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D867" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F867" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G867" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B868" t="n">
+        <v>1733111059602</v>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D868" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F868" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G868" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B869" t="n">
+        <v>1733111119840</v>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D869" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F869" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G869" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H869" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B870" t="n">
+        <v>1733111180046</v>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D870" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E870" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F870" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G870" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H870" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B871" t="n">
+        <v>1733111240234</v>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D871" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F871" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G871" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B872" t="n">
+        <v>1733111300493</v>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D872" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E872" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F872" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G872" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B873" t="n">
+        <v>1733111360642</v>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D873" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E873" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F873" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G873" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B874" t="n">
+        <v>1733111420856</v>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D874" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E874" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F874" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G874" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B875" t="n">
+        <v>1733111481060</v>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D875" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E875" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F875" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G875" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B876" t="n">
+        <v>1733111541322</v>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D876" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F876" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G876" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B877" t="n">
+        <v>1733111601578</v>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D877" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E877" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F877" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G877" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B878" t="n">
+        <v>1733111661806</v>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D878" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E878" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F878" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G878" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B879" t="n">
+        <v>1733111722048</v>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D879" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F879" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G879" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B880" t="n">
+        <v>1733111782242</v>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D880" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E880" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F880" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G880" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B881" t="n">
+        <v>1733111842388</v>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D881" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E881" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F881" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G881" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B882" t="n">
+        <v>1733111902568</v>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D882" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E882" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F882" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G882" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B883" t="n">
+        <v>1733111962776</v>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D883" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F883" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G883" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B884" t="n">
+        <v>1733112022965</v>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D884" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F884" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G884" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B885" t="n">
+        <v>1733112083106</v>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D885" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F885" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G885" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B886" t="n">
+        <v>1733112143284</v>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D886" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F886" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G886" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B887" t="n">
+        <v>1733112203472</v>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D887" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F887" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G887" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B888" t="n">
+        <v>1733112263723</v>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D888" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F888" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G888" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B889" t="n">
+        <v>1733112323910</v>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D889" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F889" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G889" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B890" t="n">
+        <v>1733112384125</v>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D890" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F890" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G890" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B891" t="n">
+        <v>1733112444328</v>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D891" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E891" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F891" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G891" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B892" t="n">
+        <v>1733112504562</v>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D892" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E892" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F892" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G892" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H892" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B893" t="n">
+        <v>1733112564779</v>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D893" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E893" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F893" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G893" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B894" t="n">
+        <v>1733112624980</v>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D894" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E894" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F894" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G894" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B895" t="n">
+        <v>1733112685212</v>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D895" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E895" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F895" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G895" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H895" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B896" t="n">
+        <v>1733112745444</v>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D896" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E896" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F896" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G896" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H896" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B897" t="n">
+        <v>1733112805665</v>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D897" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E897" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F897" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G897" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H897" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B898" t="n">
+        <v>1733112865893</v>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D898" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E898" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F898" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G898" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B899" t="n">
+        <v>1733112926050</v>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D899" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F899" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G899" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H899" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B900" t="n">
+        <v>1733112986270</v>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D900" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E900" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F900" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G900" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H900" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B901" t="n">
+        <v>1733113046534</v>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D901" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E901" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F901" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G901" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H901" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B902" t="n">
+        <v>1733113106752</v>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D902" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E902" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F902" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G902" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H902" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B903" t="n">
+        <v>1733113166988</v>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D903" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F903" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G903" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B904" t="n">
+        <v>1733113227203</v>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D904" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E904" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F904" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G904" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H904" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B905" t="n">
+        <v>1733113287407</v>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D905" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F905" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G905" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B906" t="n">
+        <v>1733113347609</v>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D906" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F906" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G906" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B907" t="n">
+        <v>1733113407858</v>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D907" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B908" t="n">
+        <v>1733113468069</v>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D908" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B909" t="n">
+        <v>1733113528321</v>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D909" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E909" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B910" t="n">
+        <v>1733113588530</v>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D910" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E910" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F910" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G910" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B911" t="n">
+        <v>1733113648810</v>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D911" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F911" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G911" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B912" t="n">
+        <v>1733113708991</v>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D912" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F912" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B913" t="n">
+        <v>1733113769207</v>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D913" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F913" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G913" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B914" t="n">
+        <v>1733113829385</v>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D914" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F914" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G914" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B915" t="n">
+        <v>1733113889609</v>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D915" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E915" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F915" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G915" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H915" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B916" t="n">
+        <v>1733113949798</v>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D916" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F916" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G916" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H916" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B917" t="n">
+        <v>1733114010053</v>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D917" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E917" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F917" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G917" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H917" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B918" t="n">
+        <v>1733114070272</v>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D918" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E918" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F918" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G918" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H918" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B919" t="n">
+        <v>1733114130485</v>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D919" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E919" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F919" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G919" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H919" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B920" t="n">
+        <v>1733114190726</v>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D920" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E920" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F920" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G920" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H920" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B921" t="n">
+        <v>1733114250929</v>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D921" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F921" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G921" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B922" t="n">
+        <v>1733114311163</v>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D922" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E922" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F922" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G922" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B923" t="n">
+        <v>1733114371347</v>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D923" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F923" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G923" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B924" t="n">
+        <v>1733114431550</v>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D924" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F924" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G924" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B925" t="n">
+        <v>1733114491802</v>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D925" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F925" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G925" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B926" t="n">
+        <v>1733114552023</v>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D926" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F926" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G926" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B927" t="n">
+        <v>1733114612207</v>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D927" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F927" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G927" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B928" t="n">
+        <v>1733114672502</v>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D928" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E928" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F928" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B929" t="n">
+        <v>1733114732741</v>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D929" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F929" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G929" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B930" t="n">
+        <v>1733114793012</v>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D930" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F930" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G930" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B931" t="n">
+        <v>1733114853211</v>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D931" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F931" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G931" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H931" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B932" t="n">
+        <v>1733114913417</v>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D932" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F932" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G932" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H932" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B933" t="n">
+        <v>1733114973616</v>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D933" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F933" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G933" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H933" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B934" t="n">
+        <v>1733115033890</v>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D934" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F934" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G934" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H934" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B935" t="n">
+        <v>1733115094128</v>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D935" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F935" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G935" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B936" t="n">
+        <v>1733115154327</v>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D936" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F936" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G936" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B937" t="n">
+        <v>1733115214548</v>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D937" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F937" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G937" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H937" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B938" t="n">
+        <v>1733115274779</v>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D938" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F938" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G938" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H938" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B939" t="n">
+        <v>1733115334991</v>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D939" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E939" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F939" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G939" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B940" t="n">
+        <v>1733115395196</v>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D940" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E940" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F940" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G940" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H940" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B941" t="n">
+        <v>1733115455458</v>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D941" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F941" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G941" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H941" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B942" t="n">
+        <v>1733115515645</v>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D942" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F942" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G942" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B943" t="n">
+        <v>1733115575885</v>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D943" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F943" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G943" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H943" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B944" t="n">
+        <v>1733115636125</v>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D944" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E944" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F944" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G944" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B945" t="n">
+        <v>1733115696341</v>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D945" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E945" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F945" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G945" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H945" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B946" t="n">
+        <v>1733115756554</v>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D946" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E946" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F946" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G946" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H946" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B947" t="n">
+        <v>1733115816730</v>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D947" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F947" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G947" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H947" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B948" t="n">
+        <v>1733115876943</v>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D948" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E948" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F948" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G948" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H948" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B949" t="n">
+        <v>1733115937193</v>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D949" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F949" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G949" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H949" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B950" t="n">
+        <v>1733115997414</v>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D950" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E950" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F950" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G950" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H950" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B951" t="n">
+        <v>1733116057639</v>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D951" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E951" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F951" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G951" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H951" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B952" t="n">
+        <v>1733116117853</v>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D952" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F952" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G952" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H952" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B953" t="n">
+        <v>1733116178010</v>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D953" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F953" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G953" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H953" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B954" t="n">
+        <v>1733116238241</v>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D954" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F954" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G954" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H954" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B955" t="n">
+        <v>1733116298491</v>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D955" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F955" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G955" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H955" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B956" t="n">
+        <v>1733116358664</v>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D956" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E956" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F956" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G956" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H956" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B957" t="n">
+        <v>1733116418905</v>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D957" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F957" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H957" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B958" t="n">
+        <v>1733116479123</v>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D958" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F958" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B959" t="n">
+        <v>1733116539332</v>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D959" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E959" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F959" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G959" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H959" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B960" t="n">
+        <v>1733116599523</v>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D960" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E960" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F960" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G960" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H960" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B961" t="n">
+        <v>1733116659691</v>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D961" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F961" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G961" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H961" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B962" t="n">
+        <v>1733116719846</v>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D962" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E962" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F962" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H962" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B963" t="n">
+        <v>1733116780087</v>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D963" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E963" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F963" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H963" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B964" t="n">
+        <v>1733116840283</v>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D964" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F964" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G964" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B965" t="n">
+        <v>1733116900485</v>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D965" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E965" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F965" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G965" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H965" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B966" t="n">
+        <v>1733116960629</v>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D966" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F966" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G966" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H966" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B967" t="n">
+        <v>1733117020868</v>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D967" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E967" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F967" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G967" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H967" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B968" t="n">
+        <v>1733117081082</v>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D968" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E968" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F968" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G968" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H968" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B969" t="n">
+        <v>1733117141264</v>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D969" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F969" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G969" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H969" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B970" t="n">
+        <v>1733117201450</v>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D970" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E970" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F970" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G970" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H970" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B971" t="n">
+        <v>1733117261645</v>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D971" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F971" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G971" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H971" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B972" t="n">
+        <v>1733117321804</v>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D972" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F972" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G972" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H972" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B973" t="n">
+        <v>1733117382002</v>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D973" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E973" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F973" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G973" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H973" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B974" t="n">
+        <v>1733117442209</v>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D974" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E974" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F974" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G974" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H974" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B975" t="n">
+        <v>1733117502389</v>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D975" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F975" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G975" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H975" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B976" t="n">
+        <v>1733117562551</v>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D976" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F976" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G976" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H976" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B977" t="n">
+        <v>1733117622771</v>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D977" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F977" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G977" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H977" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B978" t="n">
+        <v>1733117682944</v>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D978" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F978" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G978" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H978" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B979" t="n">
+        <v>1733117743131</v>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D979" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E979" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F979" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G979" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B980" t="n">
+        <v>1733117803352</v>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D980" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E980" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F980" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G980" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B981" t="n">
+        <v>1733117863548</v>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D981" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F981" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G981" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H981" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B982" t="n">
+        <v>1733117923746</v>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D982" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E982" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F982" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G982" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H982" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B983" t="n">
+        <v>1733117983907</v>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D983" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F983" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G983" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H983" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B984" t="n">
+        <v>1733118044119</v>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D984" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F984" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G984" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H984" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B985" t="n">
+        <v>1733118104360</v>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D985" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E985" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F985" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G985" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B986" t="n">
+        <v>1733118164539</v>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D986" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F986" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G986" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B987" t="n">
+        <v>1733118224758</v>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D987" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F987" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G987" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B988" t="n">
+        <v>1733118284981</v>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D988" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E988" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F988" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G988" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H988" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B989" t="n">
+        <v>1733118345199</v>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D989" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F989" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G989" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H989" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B990" t="n">
+        <v>1733118405438</v>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D990" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E990" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F990" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G990" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H990" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B991" t="n">
+        <v>1733118465629</v>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D991" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F991" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G991" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H991" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B992" t="n">
+        <v>1733118525825</v>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D992" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F992" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G992" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H992" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B993" t="n">
+        <v>1733118586026</v>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D993" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E993" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F993" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G993" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H993" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B994" t="n">
+        <v>1733118646253</v>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D994" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E994" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F994" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G994" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H994" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B995" t="n">
+        <v>1733118706412</v>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D995" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E995" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F995" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G995" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H995" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B996" t="n">
+        <v>1733118766635</v>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D996" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E996" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F996" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G996" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H996" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B997" t="n">
+        <v>1733118826818</v>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D997" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E997" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F997" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G997" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H997" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B998" t="n">
+        <v>1733118887108</v>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D998" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E998" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F998" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G998" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H998" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B999" t="n">
+        <v>1733118947324</v>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D999" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E999" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F999" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G999" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H999" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1000" t="n">
+        <v>1733119007470</v>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1000" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1000" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1000" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1000" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1000" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1001" t="n">
+        <v>1733119067712</v>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1001" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1001" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1001" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1001" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1001" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1002" t="n">
+        <v>1733119127908</v>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1002" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1002" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1002" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1002" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1002" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1003" t="n">
+        <v>1733119188141</v>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1003" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1003" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1003" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1003" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1003" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1004" t="n">
+        <v>1733119248368</v>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1004" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1004" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1004" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1004" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1004" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1005" t="n">
+        <v>1733119308539</v>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1005" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1005" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1005" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1005" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1005" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1006" t="n">
+        <v>1733119368670</v>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1006" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1006" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1006" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1006" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1006" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1007" t="n">
+        <v>1733119428933</v>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1007" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1007" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1007" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1007" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1007" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1008" t="n">
+        <v>1733119489151</v>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1008" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1008" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1008" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1008" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1008" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1009" t="n">
+        <v>1733119549429</v>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1009" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1009" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1009" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1009" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1009" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1010" t="n">
+        <v>1733119609644</v>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1010" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1010" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1010" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1010" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1010" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1011" t="n">
+        <v>1733119669877</v>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1011" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1011" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1011" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1011" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1011" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1012" t="n">
+        <v>1733119730148</v>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1012" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1012" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1012" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1012" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1012" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1013" t="n">
+        <v>1733119790352</v>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1013" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1013" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1013" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1013" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1013" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1014" t="n">
+        <v>1733119850534</v>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1014" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1014" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1014" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1014" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1014" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1015" t="n">
+        <v>1733119910712</v>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1015" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1015" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1015" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1015" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1015" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1016" t="n">
+        <v>1733119970966</v>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1016" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1016" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1016" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1016" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1016" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1017" t="n">
+        <v>1733120031192</v>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1017" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1017" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1017" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1017" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1017" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1018" t="n">
+        <v>1733120091393</v>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1018" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1018" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1018" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1018" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1018" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1019" t="n">
+        <v>1733120151632</v>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1019" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1019" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1019" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1019" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1019" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1020" t="n">
+        <v>1733120211845</v>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1020" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1020" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1020" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1020" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1020" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1021" t="n">
+        <v>1733120272041</v>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1021" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1021" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1021" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1021" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1021" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1022" t="n">
+        <v>1733120332255</v>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1022" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1022" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1022" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1022" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1022" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1023" t="n">
+        <v>1733120392454</v>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1023" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1023" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1023" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1023" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1023" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1024" t="n">
+        <v>1733120452661</v>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1024" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1024" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1024" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1024" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1024" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1025" t="n">
+        <v>1733120512897</v>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1025" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1025" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1025" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1025" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1025" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1026" t="n">
+        <v>1733120573078</v>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1026" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1026" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1026" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1026" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1026" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1027" t="n">
+        <v>1733120633297</v>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1027" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1027" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1027" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1027" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1027" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1028" t="n">
+        <v>1733120693474</v>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1028" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1028" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1028" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1028" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1028" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1029" t="n">
+        <v>1733120753692</v>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1029" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1029" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1029" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1029" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1029" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1030" t="n">
+        <v>1733120813947</v>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1030" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1030" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1030" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1030" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1030" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1031" t="n">
+        <v>1733120874184</v>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1031" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1031" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1031" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1031" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1031" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1032" t="n">
+        <v>1733120934342</v>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1032" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1032" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1032" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1032" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1032" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1033" t="n">
+        <v>1733120994551</v>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1033" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1033" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1033" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1033" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1033" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1034" t="n">
+        <v>1733121054754</v>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1034" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1034" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1034" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1034" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1034" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1035" t="n">
+        <v>1733121114978</v>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1035" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1035" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1035" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1035" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1035" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1036" t="n">
+        <v>1733121175179</v>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1036" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1036" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1036" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1036" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1036" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1037" t="n">
+        <v>1733121235402</v>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1037" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1037" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1037" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1037" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1037" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1038" t="n">
+        <v>1733121295622</v>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1038" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1038" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1038" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1038" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1038" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1039" t="n">
+        <v>1733121355812</v>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1039" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1039" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1039" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1039" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1039" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/output/bi.custom.json/game.xlsx
+++ b/output/bi.custom.json/game.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1039"/>
+  <dimension ref="A1:H1088"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39929,6 +39929,1868 @@
         </is>
       </c>
     </row>
+    <row customHeight="1" ht="15" r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1040" t="n">
+        <v>1733121416004</v>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1040" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1040" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1040" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1040" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1040" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1041" t="n">
+        <v>1733121476177</v>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1041" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1041" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1041" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1041" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1041" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1042" t="n">
+        <v>1733121536459</v>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1042" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1042" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1042" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1042" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1042" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1043" t="n">
+        <v>1733121596652</v>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1043" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1043" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1043" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1043" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1043" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1044" t="n">
+        <v>1733121656837</v>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1044" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1044" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1044" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1044" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1044" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1045" t="n">
+        <v>1733121717040</v>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1045" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1045" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1045" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1045" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1045" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1046" t="n">
+        <v>1733121777271</v>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1046" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1046" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1046" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1046" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1046" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1047" t="n">
+        <v>1733121837448</v>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1047" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1047" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1047" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1047" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1047" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1048" t="n">
+        <v>1733121897640</v>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1048" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1048" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1048" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1048" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1048" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1049" t="n">
+        <v>1733121957859</v>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1049" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1049" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1049" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1049" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1049" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1050" t="n">
+        <v>1733122018074</v>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1050" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1050" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1050" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1050" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1050" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1051" t="n">
+        <v>1733122078283</v>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1051" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1051" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1051" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1051" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1051" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1052" t="n">
+        <v>1733122138486</v>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1052" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1052" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1052" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1052" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1052" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1053" t="n">
+        <v>1733122198650</v>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1053" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1053" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1053" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1053" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1053" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1054" t="n">
+        <v>1733122258835</v>
+      </c>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1054" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1054" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1054" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1054" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1054" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1055" t="n">
+        <v>1733122319078</v>
+      </c>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1055" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1055" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1055" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1055" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1055" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1056" t="n">
+        <v>1733122379360</v>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1056" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1056" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1056" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1056" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1056" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1057" t="n">
+        <v>1733122439581</v>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1057" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1057" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1057" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1057" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1057" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1058" t="n">
+        <v>1733122499833</v>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1058" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1058" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1058" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1058" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1058" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1059" t="n">
+        <v>1733122560057</v>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1059" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1059" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1059" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1059" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1059" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1060" t="n">
+        <v>1733122620217</v>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1060" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1060" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1060" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1060" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1060" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1061" t="n">
+        <v>1733122680434</v>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1061" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1061" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1061" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1061" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1061" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1062" t="n">
+        <v>1733122740607</v>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1062" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1062" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1062" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1062" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1062" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1063" t="n">
+        <v>1733122800893</v>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1063" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1063" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1063" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1063" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1063" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1064" t="n">
+        <v>1733122861135</v>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1064" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1064" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1064" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1064" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1064" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1065" t="n">
+        <v>1733122921339</v>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1065" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1065" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1065" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1065" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1065" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1066" t="n">
+        <v>1733122981599</v>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1066" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1066" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1066" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1066" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1066" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1067" t="n">
+        <v>1733123041772</v>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1067" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1067" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1067" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1067" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1067" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1068" t="n">
+        <v>1733123102055</v>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1068" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1068" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1068" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1068" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1068" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1069" t="n">
+        <v>1733123162228</v>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1069" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1069" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1069" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1069" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1069" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1070" t="n">
+        <v>1733123222414</v>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1070" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1070" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1070" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1070" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1070" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1071" t="n">
+        <v>1733123282594</v>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1071" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1071" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1071" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1071" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1071" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1072" t="n">
+        <v>1733123342841</v>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1072" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1072" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1072" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1072" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1072" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1073" t="n">
+        <v>1733123403028</v>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1073" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1073" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1073" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1073" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1073" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1074" t="n">
+        <v>1733123463219</v>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1074" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1074" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1074" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1074" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1074" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1075" t="n">
+        <v>1733123523455</v>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1075" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1075" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1075" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1075" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1075" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1076" t="n">
+        <v>1733123583630</v>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1076" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1076" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1076" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1076" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1076" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1077" t="n">
+        <v>1733123643820</v>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1077" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1077" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1077" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1077" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1077" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1078" t="n">
+        <v>1733123703973</v>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1078" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1078" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1078" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1078" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1078" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1079" t="n">
+        <v>1733123764128</v>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1079" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1079" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1079" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1079" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1079" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1080" t="n">
+        <v>1733123824307</v>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1080" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1080" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1080" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1080" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1080" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1081" t="n">
+        <v>1733123884496</v>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1081" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1081" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1081" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1081" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1081" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1082" t="n">
+        <v>1733123944663</v>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1082" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1082" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1082" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1082" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1082" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1083" t="n">
+        <v>1733124004935</v>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1083" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1083" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1083" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1083" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1083" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1084" t="n">
+        <v>1733124065167</v>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1084" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1084" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1084" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1084" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1084" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1085" t="n">
+        <v>1733124125394</v>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1085" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1085" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1085" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1085" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1085" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1086" t="n">
+        <v>1733124185602</v>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1086" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1086" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1086" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1086" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1086" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1087" t="n">
+        <v>1733124245829</v>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1087" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1087" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1087" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1087" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1087" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>server_player_flow</t>
+        </is>
+      </c>
+      <c r="B1088" t="n">
+        <v>1733124306037</v>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>gs</t>
+        </is>
+      </c>
+      <c r="D1088" t="n">
+        <v>8043077</v>
+      </c>
+      <c r="E1088" t="inlineStr">
+        <is>
+          <t>8043077-game0</t>
+        </is>
+      </c>
+      <c r="F1088" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G1088" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H1088" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
